--- a/Hotel_Data_Import.xlsx
+++ b/Hotel_Data_Import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deadlines\Year 3\Semester II_3\Software Design\Project\HotelManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\third year\Sem2\TKPM\HotelManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890CCAC9-4812-4B1E-8371-543698C8597F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74EB292-C4A5-41B7-960B-EDD2DD560AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>SoPhong</t>
   </si>
@@ -61,9 +61,6 @@
     <t>SLKhachToiDa</t>
   </si>
   <si>
-    <t>VIP</t>
-  </si>
-  <si>
     <t>TenLoaiKhach</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>VD: QL_Trang</t>
+  </si>
+  <si>
+    <t>VIP2</t>
   </si>
 </sst>
 </file>
@@ -352,14 +352,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,6 +369,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,47 +417,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -470,34 +467,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2C5FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -783,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,22 +767,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>404</v>
+        <v>501</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -822,12 +791,26 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>502</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -840,7 +823,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,31 +834,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
+      <c r="A2" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>1500000</v>
+        <v>1200000</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C1048576">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -898,16 +881,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1.25</v>
@@ -915,7 +898,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -927,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF418B3-3EEB-4A8B-88EE-DD466FBA1DC5}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,25 +924,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>456789456</v>
@@ -968,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>1234</v>
@@ -976,7 +959,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>123145678</v>
@@ -985,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>1234</v>
@@ -993,14 +976,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E1048576">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>" =MOD(ROW(),2)=0"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>" =MOD(ROW(),2)=0"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1011,437 +994,437 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E7F769-A804-4756-B9BF-194575332741}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
